--- a/inst/exdata/Warszawa.xlsx
+++ b/inst/exdata/Warszawa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>Kod</t>
   </si>
@@ -155,33 +155,774 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="253">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -193,788 +934,788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="3">
+      <c r="A2" s="19" t="n">
         <v>1465028.0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n" s="3">
+      <c r="D2" s="73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="109" t="n">
         <v>261.0</v>
       </c>
-      <c r="G2" t="n" s="3">
+      <c r="G2" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="H2" t="n" s="3">
+      <c r="H2" s="145" t="n">
         <v>447.0</v>
       </c>
-      <c r="I2" t="n" s="3">
+      <c r="I2" s="163" t="n">
         <v>5.0</v>
       </c>
-      <c r="J2" t="n" s="3">
+      <c r="J2" s="181" t="n">
         <v>1765.0</v>
       </c>
-      <c r="K2" t="n" s="3">
+      <c r="K2" s="199" t="n">
         <v>62861.0</v>
       </c>
-      <c r="L2" t="n" s="3">
+      <c r="L2" s="217" t="n">
         <v>55196.0</v>
       </c>
-      <c r="M2" t="n" s="3">
+      <c r="M2" s="235" t="n">
         <v>4732.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
+      <c r="A3" s="20" t="n">
         <v>1465038.0</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="3">
+      <c r="D3" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="92" t="n">
         <v>56.0</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" s="110" t="n">
         <v>1148.0</v>
       </c>
-      <c r="G3" t="n" s="3">
+      <c r="G3" s="128" t="n">
         <v>43.0</v>
       </c>
-      <c r="H3" t="n" s="3">
+      <c r="H3" s="146" t="n">
         <v>2797.0</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" s="164" t="n">
         <v>355.0</v>
       </c>
-      <c r="J3" t="n" s="3">
+      <c r="J3" s="182" t="n">
         <v>2905.0</v>
       </c>
-      <c r="K3" t="n" s="3">
+      <c r="K3" s="200" t="n">
         <v>57527.0</v>
       </c>
-      <c r="L3" t="n" s="3">
+      <c r="L3" s="218" t="n">
         <v>51535.0</v>
       </c>
-      <c r="M3" t="n" s="3">
+      <c r="M3" s="236" t="n">
         <v>1493.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="3">
+      <c r="A4" s="21" t="n">
         <v>1465048.0</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" s="75" t="n">
         <v>5.0</v>
       </c>
-      <c r="E4" t="n" s="3">
+      <c r="E4" s="93" t="n">
         <v>37.0</v>
       </c>
-      <c r="F4" t="n" s="3">
+      <c r="F4" s="111" t="n">
         <v>796.0</v>
       </c>
-      <c r="G4" t="n" s="3">
+      <c r="G4" s="129" t="n">
         <v>15.0</v>
       </c>
-      <c r="H4" t="n" s="3">
+      <c r="H4" s="147" t="n">
         <v>334.0</v>
       </c>
-      <c r="I4" t="n" s="3">
+      <c r="I4" s="165" t="n">
         <v>174.0</v>
       </c>
-      <c r="J4" t="n" s="3">
+      <c r="J4" s="183" t="n">
         <v>1873.0</v>
       </c>
-      <c r="K4" t="n" s="3">
+      <c r="K4" s="201" t="n">
         <v>71817.0</v>
       </c>
-      <c r="L4" t="n" s="3">
+      <c r="L4" s="219" t="n">
         <v>60117.0</v>
       </c>
-      <c r="M4" t="n" s="3">
+      <c r="M4" s="237" t="n">
         <v>4080.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="3">
+      <c r="A5" s="22" t="n">
         <v>1465058.0</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="3">
+      <c r="D5" s="76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="94" t="n">
         <v>72.0</v>
       </c>
-      <c r="F5" t="n" s="3">
+      <c r="F5" s="112" t="n">
         <v>32.0</v>
       </c>
-      <c r="G5" t="n" s="3">
+      <c r="G5" s="130" t="n">
         <v>71.0</v>
       </c>
-      <c r="H5" t="n" s="3">
+      <c r="H5" s="148" t="n">
         <v>757.0</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" s="166" t="n">
         <v>124.0</v>
       </c>
-      <c r="J5" t="n" s="3">
+      <c r="J5" s="184" t="n">
         <v>2486.0</v>
       </c>
-      <c r="K5" t="n" s="3">
+      <c r="K5" s="202" t="n">
         <v>120529.0</v>
       </c>
-      <c r="L5" t="n" s="3">
+      <c r="L5" s="220" t="n">
         <v>98382.0</v>
       </c>
-      <c r="M5" t="n" s="3">
+      <c r="M5" s="238" t="n">
         <v>6180.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="3">
+      <c r="A6" s="23" t="n">
         <v>1465068.0</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n" s="3">
+      <c r="D6" s="77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="H6" t="n" s="3">
+      <c r="H6" s="149" t="n">
         <v>25.0</v>
       </c>
-      <c r="I6" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n" s="3">
+      <c r="I6" s="167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="185" t="n">
         <v>942.0</v>
       </c>
-      <c r="K6" t="n" s="3">
+      <c r="K6" s="203" t="n">
         <v>46180.0</v>
       </c>
-      <c r="L6" t="n" s="3">
+      <c r="L6" s="221" t="n">
         <v>38100.0</v>
       </c>
-      <c r="M6" t="n" s="3">
+      <c r="M6" s="239" t="n">
         <v>8671.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="3">
+      <c r="A7" s="24" t="n">
         <v>1465078.0</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="3">
+      <c r="D7" s="78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="96" t="n">
         <v>19.0</v>
       </c>
-      <c r="F7" t="n" s="3">
+      <c r="F7" s="114" t="n">
         <v>65.0</v>
       </c>
-      <c r="G7" t="n" s="3">
+      <c r="G7" s="132" t="n">
         <v>2.0</v>
       </c>
-      <c r="H7" t="n" s="3">
+      <c r="H7" s="150" t="n">
         <v>128.0</v>
       </c>
-      <c r="I7" t="n" s="3">
+      <c r="I7" s="168" t="n">
         <v>149.0</v>
       </c>
-      <c r="J7" t="n" s="3">
+      <c r="J7" s="186" t="n">
         <v>1875.0</v>
       </c>
-      <c r="K7" t="n" s="3">
+      <c r="K7" s="204" t="n">
         <v>97548.0</v>
       </c>
-      <c r="L7" t="n" s="3">
+      <c r="L7" s="222" t="n">
         <v>80761.0</v>
       </c>
-      <c r="M7" t="n" s="3">
+      <c r="M7" s="240" t="n">
         <v>7967.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3">
+      <c r="A8" s="25" t="n">
         <v>1465088.0</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n" s="3">
+      <c r="D8" s="79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="97" t="n">
         <v>15.0</v>
       </c>
-      <c r="F8" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n" s="3">
+      <c r="F8" s="115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="133" t="n">
         <v>29.0</v>
       </c>
-      <c r="H8" t="n" s="3">
+      <c r="H8" s="151" t="n">
         <v>38.0</v>
       </c>
-      <c r="I8" t="n" s="3">
+      <c r="I8" s="169" t="n">
         <v>146.0</v>
       </c>
-      <c r="J8" t="n" s="3">
+      <c r="J8" s="187" t="n">
         <v>914.0</v>
       </c>
-      <c r="K8" t="n" s="3">
+      <c r="K8" s="205" t="n">
         <v>36201.0</v>
       </c>
-      <c r="L8" t="n" s="3">
+      <c r="L8" s="223" t="n">
         <v>31078.0</v>
       </c>
-      <c r="M8" t="n" s="3">
+      <c r="M8" s="241" t="n">
         <v>5891.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3">
+      <c r="A9" s="26" t="n">
         <v>1465098.0</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="3">
+      <c r="D9" s="80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="98" t="n">
         <v>69.0</v>
       </c>
-      <c r="F9" t="n" s="3">
+      <c r="F9" s="116" t="n">
         <v>751.0</v>
       </c>
-      <c r="G9" t="n" s="3">
+      <c r="G9" s="134" t="n">
         <v>13.0</v>
       </c>
-      <c r="H9" t="n" s="3">
+      <c r="H9" s="152" t="n">
         <v>220.0</v>
       </c>
-      <c r="I9" t="n" s="3">
+      <c r="I9" s="170" t="n">
         <v>1.0</v>
       </c>
-      <c r="J9" t="n" s="3">
+      <c r="J9" s="188" t="n">
         <v>876.0</v>
       </c>
-      <c r="K9" t="n" s="3">
+      <c r="K9" s="206" t="n">
         <v>12429.0</v>
       </c>
-      <c r="L9" t="n" s="3">
+      <c r="L9" s="224" t="n">
         <v>11383.0</v>
       </c>
-      <c r="M9" t="n" s="3">
+      <c r="M9" s="242" t="n">
         <v>1234.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3">
+      <c r="A10" s="27" t="n">
         <v>1465108.0</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="3">
+      <c r="D10" s="81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="99" t="n">
         <v>8.0</v>
       </c>
-      <c r="F10" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n" s="3">
+      <c r="F10" s="117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="153" t="n">
         <v>3.0</v>
       </c>
-      <c r="I10" t="n" s="3">
+      <c r="I10" s="171" t="n">
         <v>96.0</v>
       </c>
-      <c r="J10" t="n" s="3">
+      <c r="J10" s="189" t="n">
         <v>1450.0</v>
       </c>
-      <c r="K10" t="n" s="3">
+      <c r="K10" s="207" t="n">
         <v>66299.0</v>
       </c>
-      <c r="L10" t="n" s="3">
+      <c r="L10" s="225" t="n">
         <v>53792.0</v>
       </c>
-      <c r="M10" t="n" s="3">
+      <c r="M10" s="243" t="n">
         <v>7713.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="3">
+      <c r="A11" s="28" t="n">
         <v>1465118.0</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n" s="3">
+      <c r="D11" s="82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="100" t="n">
         <v>1.0</v>
       </c>
-      <c r="F11" t="n" s="3">
+      <c r="F11" s="118" t="n">
         <v>193.0</v>
       </c>
-      <c r="G11" t="n" s="3">
+      <c r="G11" s="136" t="n">
         <v>2.0</v>
       </c>
-      <c r="H11" t="n" s="3">
+      <c r="H11" s="154" t="n">
         <v>497.0</v>
       </c>
-      <c r="I11" t="n" s="3">
+      <c r="I11" s="172" t="n">
         <v>9.0</v>
       </c>
-      <c r="J11" t="n" s="3">
+      <c r="J11" s="190" t="n">
         <v>1720.0</v>
       </c>
-      <c r="K11" t="n" s="3">
+      <c r="K11" s="208" t="n">
         <v>66602.0</v>
       </c>
-      <c r="L11" t="n" s="3">
+      <c r="L11" s="226" t="n">
         <v>57075.0</v>
       </c>
-      <c r="M11" t="n" s="3">
+      <c r="M11" s="244" t="n">
         <v>5106.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3">
+      <c r="A12" s="29" t="n">
         <v>1465128.0</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n" s="3">
+      <c r="D12" s="83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="137" t="n">
         <v>1.0</v>
       </c>
-      <c r="H12" t="n" s="3">
+      <c r="H12" s="155" t="n">
         <v>169.0</v>
       </c>
-      <c r="I12" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n" s="3">
+      <c r="I12" s="173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="191" t="n">
         <v>766.0</v>
       </c>
-      <c r="K12" t="n" s="3">
+      <c r="K12" s="209" t="n">
         <v>30095.0</v>
       </c>
-      <c r="L12" t="n" s="3">
+      <c r="L12" s="227" t="n">
         <v>26395.0</v>
       </c>
-      <c r="M12" t="n" s="3">
+      <c r="M12" s="245" t="n">
         <v>6035.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="3">
+      <c r="A13" s="30" t="n">
         <v>1465138.0</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="n" s="3">
+      <c r="D13" s="84" t="n">
         <v>4.0</v>
       </c>
-      <c r="E13" t="n" s="3">
+      <c r="E13" s="102" t="n">
         <v>13.0</v>
       </c>
-      <c r="F13" t="n" s="3">
+      <c r="F13" s="120" t="n">
         <v>925.0</v>
       </c>
-      <c r="G13" t="n" s="3">
+      <c r="G13" s="138" t="n">
         <v>33.0</v>
       </c>
-      <c r="H13" t="n" s="3">
+      <c r="H13" s="156" t="n">
         <v>1155.0</v>
       </c>
-      <c r="I13" t="n" s="3">
+      <c r="I13" s="174" t="n">
         <v>6.0</v>
       </c>
-      <c r="J13" t="n" s="3">
+      <c r="J13" s="192" t="n">
         <v>2243.0</v>
       </c>
-      <c r="K13" t="n" s="3">
+      <c r="K13" s="210" t="n">
         <v>79089.0</v>
       </c>
-      <c r="L13" t="n" s="3">
+      <c r="L13" s="228" t="n">
         <v>69296.0</v>
       </c>
-      <c r="M13" t="n" s="3">
+      <c r="M13" s="246" t="n">
         <v>3389.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="3">
+      <c r="A14" s="31" t="n">
         <v>1465148.0</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="n" s="3">
+      <c r="D14" s="85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="103" t="n">
         <v>23.0</v>
       </c>
-      <c r="F14" t="n" s="3">
+      <c r="F14" s="121" t="n">
         <v>2920.0</v>
       </c>
-      <c r="G14" t="n" s="3">
+      <c r="G14" s="139" t="n">
         <v>43.0</v>
       </c>
-      <c r="H14" t="n" s="3">
+      <c r="H14" s="157" t="n">
         <v>2105.0</v>
       </c>
-      <c r="I14" t="n" s="3">
+      <c r="I14" s="175" t="n">
         <v>326.0</v>
       </c>
-      <c r="J14" t="n" s="3">
+      <c r="J14" s="193" t="n">
         <v>2553.0</v>
       </c>
-      <c r="K14" t="n" s="3">
+      <c r="K14" s="211" t="n">
         <v>38629.0</v>
       </c>
-      <c r="L14" t="n" s="3">
+      <c r="L14" s="229" t="n">
         <v>34292.0</v>
       </c>
-      <c r="M14" t="n" s="3">
+      <c r="M14" s="247" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="3">
+      <c r="A15" s="32" t="n">
         <v>1465158.0</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n" s="3">
+      <c r="D15" s="86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="122" t="n">
         <v>1302.0</v>
       </c>
-      <c r="G15" t="n" s="3">
+      <c r="G15" s="140" t="n">
         <v>53.0</v>
       </c>
-      <c r="H15" t="n" s="3">
+      <c r="H15" s="158" t="n">
         <v>156.0</v>
       </c>
-      <c r="I15" t="n" s="3">
+      <c r="I15" s="176" t="n">
         <v>4.0</v>
       </c>
-      <c r="J15" t="n" s="3">
+      <c r="J15" s="194" t="n">
         <v>779.0</v>
       </c>
-      <c r="K15" t="n" s="3">
+      <c r="K15" s="212" t="n">
         <v>12522.0</v>
       </c>
-      <c r="L15" t="n" s="3">
+      <c r="L15" s="230" t="n">
         <v>11551.0</v>
       </c>
-      <c r="M15" t="n" s="3">
+      <c r="M15" s="248" t="n">
         <v>1049.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="3">
+      <c r="A16" s="33" t="n">
         <v>1465168.0</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="n" s="3">
+      <c r="D16" s="87" t="n">
         <v>4.0</v>
       </c>
-      <c r="E16" t="n" s="3">
+      <c r="E16" s="105" t="n">
         <v>26.0</v>
       </c>
-      <c r="F16" t="n" s="3">
+      <c r="F16" s="123" t="n">
         <v>275.0</v>
       </c>
-      <c r="G16" t="n" s="3">
+      <c r="G16" s="141" t="n">
         <v>56.0</v>
       </c>
-      <c r="H16" t="n" s="3">
+      <c r="H16" s="159" t="n">
         <v>2248.0</v>
       </c>
-      <c r="I16" t="n" s="3">
+      <c r="I16" s="177" t="n">
         <v>268.0</v>
       </c>
-      <c r="J16" t="n" s="3">
+      <c r="J16" s="195" t="n">
         <v>796.0</v>
       </c>
-      <c r="K16" t="n" s="3">
+      <c r="K16" s="213" t="n">
         <v>16277.0</v>
       </c>
-      <c r="L16" t="n" s="3">
+      <c r="L16" s="231" t="n">
         <v>14426.0</v>
       </c>
-      <c r="M16" t="n" s="3">
+      <c r="M16" s="249" t="n">
         <v>836.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="3">
+      <c r="A17" s="34" t="n">
         <v>1465178.0</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n" s="3">
+      <c r="D17" s="88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="106" t="n">
         <v>13.0</v>
       </c>
-      <c r="F17" t="n" s="3">
+      <c r="F17" s="124" t="n">
         <v>59.0</v>
       </c>
-      <c r="G17" t="n" s="3">
+      <c r="G17" s="142" t="n">
         <v>2.0</v>
       </c>
-      <c r="H17" t="n" s="3">
+      <c r="H17" s="160" t="n">
         <v>685.0</v>
       </c>
-      <c r="I17" t="n" s="3">
+      <c r="I17" s="178" t="n">
         <v>9.0</v>
       </c>
-      <c r="J17" t="n" s="3">
+      <c r="J17" s="196" t="n">
         <v>2095.0</v>
       </c>
-      <c r="K17" t="n" s="3">
+      <c r="K17" s="214" t="n">
         <v>21320.0</v>
       </c>
-      <c r="L17" t="n" s="3">
+      <c r="L17" s="232" t="n">
         <v>18620.0</v>
       </c>
-      <c r="M17" t="n" s="3">
+      <c r="M17" s="250" t="n">
         <v>1395.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="3">
+      <c r="A18" s="35" t="n">
         <v>1465188.0</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n" s="3">
+      <c r="D18" s="89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="107" t="n">
         <v>1.0</v>
       </c>
-      <c r="F18" t="n" s="3">
+      <c r="F18" s="125" t="n">
         <v>51.0</v>
       </c>
-      <c r="G18" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="n" s="3">
+      <c r="G18" s="143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="161" t="n">
         <v>49.0</v>
       </c>
-      <c r="I18" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n" s="3">
+      <c r="I18" s="179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="197" t="n">
         <v>1825.0</v>
       </c>
-      <c r="K18" t="n" s="3">
+      <c r="K18" s="215" t="n">
         <v>76137.0</v>
       </c>
-      <c r="L18" t="n" s="3">
+      <c r="L18" s="233" t="n">
         <v>62325.0</v>
       </c>
-      <c r="M18" t="n" s="3">
+      <c r="M18" s="251" t="n">
         <v>7189.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="3">
+      <c r="A19" s="36" t="n">
         <v>1465198.0</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n" s="3">
+      <c r="D19" s="90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="108" t="n">
         <v>1.0</v>
       </c>
-      <c r="F19" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I19" t="n" s="3">
+      <c r="F19" s="126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="180" t="n">
         <v>63.0</v>
       </c>
-      <c r="J19" t="n" s="3">
+      <c r="J19" s="198" t="n">
         <v>783.0</v>
       </c>
-      <c r="K19" t="n" s="3">
+      <c r="K19" s="216" t="n">
         <v>27188.0</v>
       </c>
-      <c r="L19" t="n" s="3">
+      <c r="L19" s="234" t="n">
         <v>21868.0</v>
       </c>
-      <c r="M19" t="n" s="3">
+      <c r="M19" s="252" t="n">
         <v>5792.0</v>
       </c>
     </row>
